--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3143411.968851697</v>
+        <v>3145172.499154482</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8332147.903945302</v>
+        <v>8332147.903945301</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>212.568965117905</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>148.686509969291</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10.09427429948328</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>97.99706487181545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>48.62244285274792</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>155.5829331754613</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015063</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>13.11342416039188</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.317049263441</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>169.4615091892184</v>
+        <v>184.5337082881001</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>176.9050708433789</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.9479599853172</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>18.47335059663111</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256397</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.34571932179957</v>
+        <v>50.34571932180407</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>192.5971349882551</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>155.2435806730865</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474261</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>61.39258527121172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576133</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673048</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.6118834172033</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428449</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.6118834172033</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="41">
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695352</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>111.5512144998722</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>185.6920487814951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.421463841153</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.421463841153</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>574.0438072739749</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W2" t="n">
-        <v>574.0438072739749</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X2" t="n">
-        <v>423.8554133656002</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.8554133656002</v>
+        <v>255.7225503044907</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787.653248772002</v>
+        <v>660.452798987214</v>
       </c>
       <c r="C3" t="n">
-        <v>613.200219490875</v>
+        <v>485.999769706087</v>
       </c>
       <c r="D3" t="n">
-        <v>464.2658098296238</v>
+        <v>337.0653600448358</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>177.8279050393803</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>31.29334706626523</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>31.29334706626523</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4412,49 +4412,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>1054.855520006025</v>
+        <v>828.6681360072821</v>
       </c>
       <c r="Y3" t="n">
-        <v>955.86858579207</v>
+        <v>828.6681360072821</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.0368194650771</v>
+        <v>488.0630263227563</v>
       </c>
       <c r="C4" t="n">
-        <v>217.1006365371702</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D4" t="n">
-        <v>217.1006365371702</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>217.1006365371702</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>70.21068903925982</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>70.21068903925982</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
         <v>21.0971104001205</v>
@@ -4491,19 +4491,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.413376528795</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551012</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4527,13 +4527,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>788.477863438847</v>
+        <v>826.8659691080074</v>
       </c>
       <c r="Y4" t="n">
-        <v>567.6852842953168</v>
+        <v>669.711491152996</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.4202677165021</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C5" t="n">
-        <v>294.4202677165021</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4202677165021</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165021</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672986</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1041.60963701573</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>827.1755808508582</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>827.1755808508582</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>827.1755808508582</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>827.1755808508582</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>560.7979242836801</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>294.4202677165021</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
         <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>503.6022960313626</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N6" t="n">
-        <v>713.6562631339676</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>883.5948104606975</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>1000.652410494101</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810725</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528709</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473381</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823842</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>481.2412344269841</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227051</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075547</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>883.6822784007539</v>
+        <v>868.4578348665295</v>
       </c>
       <c r="Y7" t="n">
-        <v>662.8896992572238</v>
+        <v>647.6652557229994</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783.823588302846</v>
+        <v>1926.031549593933</v>
       </c>
       <c r="C8" t="n">
-        <v>1414.861071362434</v>
+        <v>1926.031549593933</v>
       </c>
       <c r="D8" t="n">
-        <v>1056.595372755684</v>
+        <v>1567.765850987182</v>
       </c>
       <c r="E8" t="n">
-        <v>1056.595372755684</v>
+        <v>1181.977598388938</v>
       </c>
       <c r="F8" t="n">
-        <v>645.6094679660762</v>
+        <v>770.9916935993306</v>
       </c>
       <c r="G8" t="n">
-        <v>229.9032459577434</v>
+        <v>355.2854715909977</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467178</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607412</v>
+        <v>442.1757437607438</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045913</v>
+        <v>795.1862829045958</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209581</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940592</v>
+        <v>2053.905718940603</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550194</v>
+        <v>2359.356530550206</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.56462266116</v>
+        <v>2540.564622661173</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342779</v>
+        <v>2316.170881569745</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342779</v>
+        <v>2316.170881569745</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342779</v>
+        <v>2316.170881569745</v>
       </c>
       <c r="X8" t="n">
-        <v>2560.562760342779</v>
+        <v>2316.170881569745</v>
       </c>
       <c r="Y8" t="n">
-        <v>2170.423428366968</v>
+        <v>1926.031549593933</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010873</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199603</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.122281858709</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532535</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801385</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763267</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>69.87120530446303</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507233</v>
+        <v>113.4887579637193</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331807</v>
+        <v>298.0857543148192</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666616</v>
+        <v>592.6217377483013</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040962</v>
+        <v>1208.393778287033</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513531</v>
+        <v>1842.133061471874</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.33348850092</v>
+        <v>2174.019871459264</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930544</v>
+        <v>2421.055229888889</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342779</v>
+        <v>2536.272628442635</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342779</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251708</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685357</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751586</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519844</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791642</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586109</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821155</v>
       </c>
     </row>
     <row r="10">
@@ -4938,64 +4938,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274017</v>
+        <v>665.0671186274019</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994948</v>
+        <v>496.130935699495</v>
       </c>
       <c r="D10" t="n">
-        <v>346.014296287159</v>
+        <v>346.0142962871593</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047659</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685558</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380129</v>
+        <v>76.6346830838019</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676564</v>
+        <v>248.2500215676575</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368932</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904052</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616503</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="V10" t="n">
         <v>1584.91488353615</v>
@@ -5007,7 +5007,7 @@
         <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576414</v>
+        <v>846.7155834576416</v>
       </c>
     </row>
     <row r="11">
@@ -5032,25 +5032,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,7 +5059,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5126,13 +5126,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2002.519984893371</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1713.444758237568</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1458.760270031681</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>948.5505208511905</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,19 +5275,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5512,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5542,13 +5542,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5600,13 +5600,13 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872168</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6293,22 +6293,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,13 +6688,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,7 +6703,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6715,25 +6715,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400717</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004717</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168647</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6967,22 +6967,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>753.30924124904</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,19 +7186,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400738</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270471</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138435</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="41">
@@ -7390,61 +7390,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,67 +7630,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127282</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446529</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915893</v>
+        <v>45.78351343583176</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544039</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.1337376721136</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458167</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.2581536004338</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.146344153809</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434852</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>24.80831533903316</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>70.46607471595064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>164.3170701178254</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>117.6820817884486</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392193927</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.97276993489149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392193928</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.97276993489149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.89260457059967</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>716012.3781689525</v>
+        <v>716012.3781689527</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689524</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580778</v>
+        <v>390680.0076580811</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606945</v>
+        <v>507909.2320606913</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911422</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101737</v>
+        <v>95270.23779101823</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954693</v>
+        <v>132717.9756954686</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555027</v>
+        <v>139261.6527555018</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26432,31 +26432,31 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678137</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678129</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567889</v>
+        <v>92902.86757567915</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275056.9011390734</v>
+        <v>-275056.9011390735</v>
       </c>
       <c r="C6" t="n">
-        <v>405031.0794521198</v>
+        <v>405031.0794521199</v>
       </c>
       <c r="D6" t="n">
-        <v>95567.02064198841</v>
+        <v>95567.02064198599</v>
       </c>
       <c r="E6" t="n">
-        <v>86317.04530301582</v>
+        <v>86629.6866319402</v>
       </c>
       <c r="F6" t="n">
-        <v>594226.2773637101</v>
+        <v>594538.9186926314</v>
       </c>
       <c r="G6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="H6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926321</v>
       </c>
       <c r="I6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="J6" t="n">
-        <v>525227.1229445965</v>
+        <v>525539.7642735171</v>
       </c>
       <c r="K6" t="n">
-        <v>594226.2773637106</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="L6" t="n">
-        <v>498956.039572693</v>
+        <v>499268.6809016132</v>
       </c>
       <c r="M6" t="n">
-        <v>461508.3016682412</v>
+        <v>461820.9429971626</v>
       </c>
       <c r="N6" t="n">
-        <v>594226.2773637106</v>
+        <v>594538.9186926314</v>
       </c>
       <c r="O6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926314</v>
       </c>
       <c r="P6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926316</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.586891951416935e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.586891951416935e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562782</v>
+        <v>933.7024595627847</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856948</v>
+        <v>640.1406900856981</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,31 +26807,31 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.586891951416935e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933036</v>
+        <v>319.6474457933063</v>
       </c>
       <c r="E3" t="n">
-        <v>434.273040778892</v>
+        <v>434.2730407788893</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841886</v>
+        <v>376.426810084192</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139538</v>
+        <v>532.5675980139505</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-2.861948103225814e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841886</v>
+        <v>376.426810084192</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841886</v>
+        <v>376.426810084192</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139538</v>
+        <v>532.5675980139505</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>170.1648765455756</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>221.044590709178</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>89.38504597172646</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>107.6856309054889</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>103.7597164831089</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>63.00172017663348</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442037</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.6542690388304</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545473</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.2161343864263</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>56.24814619981879</v>
+        <v>41.17594710093709</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>124.1284033769216</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>65.76608425465008</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>9.097406704368467</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164521125</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164534171</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>201.7919240020284</v>
+        <v>201.7919240020239</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-5.779126741819878e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>9.56674739427399e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.799680487441947e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.000604197199977e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.586891951416935e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.777136828500378e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30702,7 +30702,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.586891951416935e-14</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885564</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546668</v>
+        <v>38.44132789546679</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972539</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763185</v>
+        <v>477.4691627763199</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354941</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359933</v>
+        <v>659.0954050359952</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752507</v>
+        <v>669.7602577525089</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307887</v>
+        <v>632.4356192307905</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983015</v>
+        <v>539.7691690983031</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542137</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864755</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140463</v>
+        <v>85.53465245140487</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508451</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436933</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035144</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026285</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502174</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571276</v>
+        <v>436.0654741571289</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617161</v>
+        <v>508.8678404617176</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152208</v>
+        <v>522.3360580152224</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519079</v>
+        <v>477.8354464519093</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947597</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463707</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366406</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133927</v>
+        <v>8.095024154133952</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415874</v>
+        <v>50.63422518415889</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490128</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.931664102313</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462347</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046259</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307407</v>
+        <v>75.70643221307429</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658774</v>
+        <v>29.34274778658783</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942744</v>
+        <v>7.194100917942765</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650324</v>
+        <v>0.09183958618650351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,16 +31846,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>300.5543663814929</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966409</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015063</v>
+        <v>238.3094620181791</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.75061566861001</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705676</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313394</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655069</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087206</v>
+        <v>428.7491718087225</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155916</v>
+        <v>440.347194155918</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091019</v>
+        <v>402.3374078091038</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343032</v>
+        <v>308.5361733430336</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797643</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234269</v>
+        <v>20.20013907234338</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816845</v>
+        <v>62.90656844127622</v>
       </c>
       <c r="K9" t="n">
-        <v>379.2332739216742</v>
+        <v>186.4616124758584</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772534</v>
+        <v>297.5110943772547</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396978</v>
+        <v>621.9919601401331</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318876</v>
+        <v>640.1406900856981</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074648</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804283</v>
+        <v>249.5306650804295</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961975</v>
+        <v>116.3812106603492</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873304</v>
+        <v>25.68023017873338</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513694</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.8270281422861</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35734,13 +35734,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>161.9999866016187</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243144</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,16 +37475,16 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,16 +37712,16 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
